--- a/src/main/java/com/pay/processor/WaterMeterImport.xlsx
+++ b/src/main/java/com/pay/processor/WaterMeterImport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marchi_ma\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>楼宇编码</t>
-  </si>
-  <si>
-    <t>门牌</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>当前吨数</t>
   </si>
@@ -28,15 +27,16 @@
     <t>月度周期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,7 +117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,13 +127,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -145,6 +139,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -407,38 +404,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="12.875" style="1"/>
+    <col min="1" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="12.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/com/pay/processor/WaterMeterImport.xlsx
+++ b/src/main/java/com/pay/processor/WaterMeterImport.xlsx
@@ -12,44 +12,49 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13056"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>当前吨数</t>
   </si>
   <si>
     <t>月度周期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网管费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -60,13 +65,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -117,17 +115,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,33 +400,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="12.88671875" style="1"/>
+    <col min="1" max="1" width="13" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>